--- a/InstructionSet/Instructions.xlsx
+++ b/InstructionSet/Instructions.xlsx
@@ -4,11 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instruction set" sheetId="3" r:id="rId1"/>
+    <sheet name="Operands to Register map" sheetId="4" r:id="rId2"/>
+    <sheet name="Specification" sheetId="5" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Instruction set'!$A$1:$H$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Operands to Register map'!$A$1:$D$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Specification!$A$1:$E$11</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -19,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="124">
   <si>
     <t>Instruction</t>
   </si>
@@ -216,18 +223,12 @@
     <t>rt &lt;= ra</t>
   </si>
   <si>
-    <t>rt &lt;= DMEM[imm] {direct addressing}</t>
-  </si>
-  <si>
     <t>rt &lt;= DMEM[ra] {register indirect addressing}</t>
   </si>
   <si>
     <t>rt &lt;= DMEM[ra+off] {base plus offset addressing}</t>
   </si>
   <si>
-    <t>DMEM[imm] &lt;= rb {direct addressing}</t>
-  </si>
-  <si>
     <t>DMEM[ra] &lt;= rb {register indirect addressing}</t>
   </si>
   <si>
@@ -240,9 +241,6 @@
     <t>f If condition is true, then jump to IMEM[PC+off], else continue Conditions: ra = 0 ; ra ≠ 0 ; ra = 1; ra &lt; 0; ra &gt; 0; ra ≤ 0; ra ≥ 0</t>
   </si>
   <si>
-    <t>000000</t>
-  </si>
-  <si>
     <t>00 10 00</t>
   </si>
   <si>
@@ -297,9 +295,6 @@
     <t>11 00 00</t>
   </si>
   <si>
-    <t>11 01 00</t>
-  </si>
-  <si>
     <t>10 00 00</t>
   </si>
   <si>
@@ -319,13 +314,97 @@
   </si>
   <si>
     <t>10 10 11</t>
+  </si>
+  <si>
+    <t>00 00 00</t>
+  </si>
+  <si>
+    <t>Spec</t>
+  </si>
+  <si>
+    <t>Instruction set</t>
+  </si>
+  <si>
+    <t>opcode</t>
+  </si>
+  <si>
+    <t>registers</t>
+  </si>
+  <si>
+    <t>data size</t>
+  </si>
+  <si>
+    <t>bits</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>data offset</t>
+  </si>
+  <si>
+    <t>instruction offset</t>
+  </si>
+  <si>
+    <t>Operands</t>
+  </si>
+  <si>
+    <t>max shift</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>rt,addr</t>
+  </si>
+  <si>
+    <t>rt &lt;= DMEM[addr] {direct addressing}</t>
+  </si>
+  <si>
+    <t>DMEM[addr] &lt;= rb {direct addressing}</t>
+  </si>
+  <si>
+    <t>OO OOOO OOOO  OOOO OOOO OOOO OOOO</t>
+  </si>
+  <si>
+    <t>11 10 00</t>
+  </si>
+  <si>
+    <t>flags</t>
+  </si>
+  <si>
+    <t>ΦΦ ΦΦΦΦ ΦΦΦΦ  BBBB BAAA AAΦT TTTT</t>
+  </si>
+  <si>
+    <t>OO OOOO OOOO  OOOO ΦAAA AAΦT TTTT</t>
+  </si>
+  <si>
+    <t>ΦΦ NNNN ΦΦΦΦ  ΦΦΦΦ ΦAAA AAΦT TTTT</t>
+  </si>
+  <si>
+    <t>II IIII IIII  IIII ΦAAA AAΦT TTTT</t>
+  </si>
+  <si>
+    <t>ΦΦ ΦΦΦΦ ΦΦΦΦ  ΦΦΦΦ ΦAAA AAΦT TTTT</t>
+  </si>
+  <si>
+    <t>II IIII IIII  IIII IIII IIΦT TTTT</t>
+  </si>
+  <si>
+    <t>OO OOOO OOOO  OOOO ΦAAA AAΦΦ ΦCCC</t>
+  </si>
+  <si>
+    <t>AA AAAA AAAA  AAAA AAAA AAΦT TTTT</t>
+  </si>
+  <si>
+    <t>ΦΦ ΦΦΦΦ ΦΦΦΦ  ΦΦΦΦ ΦΦΦΦ ΦΦΦΦ ΦΦΦΦ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,8 +412,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,8 +457,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -524,69 +628,143 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -596,6 +774,60 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -621,9 +853,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="3"/>
-      <tableStyleElement type="firstColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="firstColumn" dxfId="4"/>
+      <tableStyleElement type="firstRowStripe" dxfId="3"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -635,6 +867,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:C12" totalsRowShown="0">
+  <autoFilter ref="B2:C12"/>
+  <sortState ref="B3:C11">
+    <sortCondition descending="1" ref="B2:B11"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Operands" dataDxfId="2"/>
+    <tableColumn id="2" name="Fields" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -900,480 +1146,572 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="45.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="47.140625" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="35.28515625" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="4"/>
+      <c r="F3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="39" t="str">
+        <f>VLOOKUP(D3,'Operands to Register map'!$B$3:$C$12,2,FALSE)</f>
+        <v>ΦΦ ΦΦΦΦ ΦΦΦΦ  ΦΦΦΦ ΦΦΦΦ ΦΦΦΦ ΦΦΦΦ</v>
+      </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="6"/>
+      <c r="F4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="38" t="str">
+        <f>VLOOKUP(D4,'Operands to Register map'!$B$3:$C$12,2,FALSE)</f>
+        <v>ΦΦ ΦΦΦΦ ΦΦΦΦ  BBBB BAAA AAΦT TTTT</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="31"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="19" t="s">
         <v>34</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="40" t="str">
+        <f>VLOOKUP(D5,'Operands to Register map'!$B$3:$C$12,2,FALSE)</f>
+        <v>ΦΦ ΦΦΦΦ ΦΦΦΦ  BBBB BAAA AAΦT TTTT</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="31"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="10"/>
+      <c r="F6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="41" t="str">
+        <f>VLOOKUP(D6,'Operands to Register map'!$B$3:$C$12,2,FALSE)</f>
+        <v>II IIII IIII  IIII ΦAAA AAΦT TTTT</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="31"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="19" t="s">
         <v>35</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" s="8"/>
+      <c r="F7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="40" t="str">
+        <f>VLOOKUP(D7,'Operands to Register map'!$B$3:$C$12,2,FALSE)</f>
+        <v>II IIII IIII  IIII ΦAAA AAΦT TTTT</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="31"/>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="10"/>
+      <c r="F8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="41" t="str">
+        <f>VLOOKUP(D8,'Operands to Register map'!$B$3:$C$12,2,FALSE)</f>
+        <v>ΦΦ ΦΦΦΦ ΦΦΦΦ  ΦΦΦΦ ΦAAA AAΦT TTTT</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="32"/>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" s="12"/>
+      <c r="F9" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="39" t="str">
+        <f>VLOOKUP(D9,'Operands to Register map'!$B$3:$C$12,2,FALSE)</f>
+        <v>ΦΦ ΦΦΦΦ ΦΦΦΦ  ΦΦΦΦ ΦAAA AAΦT TTTT</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="G10" s="6"/>
+      <c r="F10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="38" t="str">
+        <f>VLOOKUP(D10,'Operands to Register map'!$B$3:$C$12,2,FALSE)</f>
+        <v>ΦΦ ΦΦΦΦ ΦΦΦΦ  ΦΦΦΦ ΦAAA AAΦT TTTT</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="31"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="19" t="s">
         <v>34</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="8"/>
+      <c r="F11" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="40" t="str">
+        <f>VLOOKUP(D11,'Operands to Register map'!$B$3:$C$12,2,FALSE)</f>
+        <v>ΦΦ ΦΦΦΦ ΦΦΦΦ  BBBB BAAA AAΦT TTTT</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="31"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="10"/>
+      <c r="F12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="41" t="str">
+        <f>VLOOKUP(D12,'Operands to Register map'!$B$3:$C$12,2,FALSE)</f>
+        <v>ΦΦ ΦΦΦΦ ΦΦΦΦ  BBBB BAAA AAΦT TTTT</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="31"/>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="19" t="s">
         <v>34</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" s="8"/>
+      <c r="F13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="40" t="str">
+        <f>VLOOKUP(D13,'Operands to Register map'!$B$3:$C$12,2,FALSE)</f>
+        <v>ΦΦ ΦΦΦΦ ΦΦΦΦ  BBBB BAAA AAΦT TTTT</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="31"/>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="10"/>
+      <c r="F14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="41" t="str">
+        <f>VLOOKUP(D14,'Operands to Register map'!$B$3:$C$12,2,FALSE)</f>
+        <v>II IIII IIII  IIII ΦAAA AAΦT TTTT</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="31"/>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="17"/>
+      <c r="C15" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="19" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" s="8"/>
+      <c r="F15" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="40" t="str">
+        <f>VLOOKUP(D15,'Operands to Register map'!$B$3:$C$12,2,FALSE)</f>
+        <v>II IIII IIII  IIII ΦAAA AAΦT TTTT</v>
+      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="31"/>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="17"/>
+      <c r="C16" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="10"/>
+      <c r="F16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="41" t="str">
+        <f>VLOOKUP(D16,'Operands to Register map'!$B$3:$C$12,2,FALSE)</f>
+        <v>II IIII IIII  IIII ΦAAA AAΦT TTTT</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="31"/>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="19" t="s">
         <v>37</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="G17" s="8"/>
+      <c r="F17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="40" t="str">
+        <f>VLOOKUP(D17,'Operands to Register map'!$B$3:$C$12,2,FALSE)</f>
+        <v>ΦΦ NNNN ΦΦΦΦ  ΦΦΦΦ ΦAAA AAΦT TTTT</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="31"/>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="17"/>
+      <c r="C18" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="G18" s="10"/>
+      <c r="F18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="41" t="str">
+        <f>VLOOKUP(D18,'Operands to Register map'!$B$3:$C$12,2,FALSE)</f>
+        <v>ΦΦ NNNN ΦΦΦΦ  ΦΦΦΦ ΦAAA AAΦT TTTT</v>
+      </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="31"/>
-      <c r="C19" s="7" t="s">
+      <c r="B19" s="17"/>
+      <c r="C19" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="19" t="s">
         <v>37</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="8"/>
+      <c r="F19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="40" t="str">
+        <f>VLOOKUP(D19,'Operands to Register map'!$B$3:$C$12,2,FALSE)</f>
+        <v>ΦΦ NNNN ΦΦΦΦ  ΦΦΦΦ ΦAAA AAΦT TTTT</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="32"/>
-      <c r="C20" s="13" t="s">
+      <c r="B20" s="24"/>
+      <c r="C20" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="F20" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" s="42" t="str">
+        <f>VLOOKUP(D20,'Operands to Register map'!$B$3:$C$12,2,FALSE)</f>
+        <v>ΦΦ NNNN ΦΦΦΦ  ΦΦΦΦ ΦAAA AAΦT TTTT</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="16" t="s">
+      <c r="G21" s="43" t="str">
+        <f>VLOOKUP(D21,'Operands to Register map'!$B$3:$C$12,2,FALSE)</f>
+        <v>ΦΦ ΦΦΦΦ ΦΦΦΦ  ΦΦΦΦ ΦAAA AAΦT TTTT</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="17"/>
+      <c r="C22" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="41" t="str">
+        <f>VLOOKUP(D22,'Operands to Register map'!$B$3:$C$12,2,FALSE)</f>
+        <v>AA AAAA AAAA  AAAA AAAA AAΦT TTTT</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="17"/>
+      <c r="C23" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="28" t="s">
+      <c r="E23" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" s="40" t="str">
+        <f>VLOOKUP(D23,'Operands to Register map'!$B$3:$C$12,2,FALSE)</f>
+        <v>ΦΦ ΦΦΦΦ ΦΦΦΦ  ΦΦΦΦ ΦAAA AAΦT TTTT</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="17"/>
+      <c r="C24" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="41" t="str">
+        <f>VLOOKUP(D24,'Operands to Register map'!$B$3:$C$12,2,FALSE)</f>
+        <v>OO OOOO OOOO  OOOO ΦAAA AAΦT TTTT</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="17"/>
+      <c r="C25" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G21" s="16"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="31"/>
-      <c r="C22" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="25" t="s">
+      <c r="G25" s="40" t="str">
+        <f>VLOOKUP(D25,'Operands to Register map'!$B$3:$C$12,2,FALSE)</f>
+        <v>AA AAAA AAAA  AAAA AAAA AAΦT TTTT</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="17"/>
+      <c r="C26" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G22" s="10"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="31"/>
-      <c r="C23" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" s="28" t="s">
+      <c r="G26" s="41" t="str">
+        <f>VLOOKUP(D26,'Operands to Register map'!$B$3:$C$12,2,FALSE)</f>
+        <v>ΦΦ ΦΦΦΦ ΦΦΦΦ  ΦΦΦΦ ΦAAA AAΦT TTTT</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="24"/>
+      <c r="C27" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="31"/>
-      <c r="C24" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="31"/>
-      <c r="C25" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="31"/>
-      <c r="C26" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="21" t="s">
+      <c r="G27" s="39" t="str">
+        <f>VLOOKUP(D27,'Operands to Register map'!$B$3:$C$12,2,FALSE)</f>
+        <v>OO OOOO OOOO  OOOO ΦAAA AAΦT TTTT</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="G26" s="10"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="32"/>
-      <c r="C27" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="22" t="s">
+      <c r="F28" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" s="38" t="str">
+        <f>VLOOKUP(D28,'Operands to Register map'!$B$3:$C$12,2,FALSE)</f>
+        <v>OO OOOO OOOO  OOOO OOOO OOOO OOOO</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="24"/>
+      <c r="C29" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="G27" s="12"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="32"/>
-      <c r="C29" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F29" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="G29" s="12"/>
+      <c r="F29" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" s="39" t="str">
+        <f>VLOOKUP(D29,'Operands to Register map'!$B$3:$C$12,2,FALSE)</f>
+        <v>OO OOOO OOOO  OOOO ΦAAA AAΦΦ ΦCCC</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1385,9 +1723,245 @@
   <conditionalFormatting sqref="F3:F29">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <webPublishItems count="1">
     <webPublishItem id="4077" divId="Instructions_4077" sourceType="sheet" destinationFile="F:\University\_Second Year\Computer Architectures\assesment\MyMicroProccessor\Instructions.html" autoRepublish="1"/>
   </webPublishItems>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="45.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3">
+        <f>2^D3</f>
+        <v>4294967296</v>
+      </c>
+      <c r="D3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4">
+        <f>2^D4</f>
+        <v>64</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5">
+        <f>2^D5</f>
+        <v>65536</v>
+      </c>
+      <c r="D5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <f>ROUNDUP(LOG(C6,2),0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7">
+        <v>512</v>
+      </c>
+      <c r="D7">
+        <f>ROUNDUP(LOG(C7,2),0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8">
+        <v>256</v>
+      </c>
+      <c r="D8">
+        <f>ROUNDUP(LOG(C8,2),0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9">
+        <f>D5</f>
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <f>ROUNDUP(LOG(C9,2),0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <f>ROUNDUP(LOG(C10,2),0)</f>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>